--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp15-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp15-Bmpr1a.xlsx
@@ -534,7 +534,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06854566666666666</v>
+        <v>0.06854566666666667</v>
       </c>
       <c r="H2">
         <v>0.205637</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N2">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O2">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P2">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q2">
-        <v>0.3256218482744444</v>
+        <v>0.1604897850754445</v>
       </c>
       <c r="R2">
-        <v>2.93059663447</v>
+        <v>1.444408065679</v>
       </c>
       <c r="S2">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="T2">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06854566666666666</v>
+        <v>0.06854566666666667</v>
       </c>
       <c r="H3">
         <v>0.205637</v>
@@ -620,10 +620,10 @@
         <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q3">
         <v>2.334170072830778</v>
@@ -632,10 +632,10 @@
         <v>21.007530655477</v>
       </c>
       <c r="S3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="T3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06854566666666666</v>
+        <v>0.06854566666666667</v>
       </c>
       <c r="H4">
         <v>0.205637</v>
@@ -682,22 +682,22 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q4">
-        <v>1.544329985745555</v>
+        <v>1.544329985745556</v>
       </c>
       <c r="R4">
         <v>13.89896987171</v>
       </c>
       <c r="S4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="T4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
     </row>
   </sheetData>
